--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290"/>
+    <workbookView windowHeight="7290" windowWidth="14805" xWindow="240" yWindow="825"/>
   </bookViews>
   <sheets>
-    <sheet name="Dynamic_DataStore" sheetId="1" r:id="rId1"/>
+    <sheet name="Dynamic_DataStore" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="99">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -29,12 +29,295 @@
   </si>
   <si>
     <t>Dynamic_TestCase</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Prov_OrdPay</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>VFQA_Test700</t>
+  </si>
+  <si>
+    <t>ContactCreation</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>10242305968</t>
+  </si>
+  <si>
+    <t>AccountCreation</t>
+  </si>
+  <si>
+    <t>Billing_NO</t>
+  </si>
+  <si>
+    <t>1-4PE05XL</t>
+  </si>
+  <si>
+    <t>BillingProfileCreation</t>
+  </si>
+  <si>
+    <t>Sales_OrderNO</t>
+  </si>
+  <si>
+    <t>1-10242306086</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>Order_Creation_Date</t>
+  </si>
+  <si>
+    <t>21-1-2018</t>
+  </si>
+  <si>
+    <t>PlanName</t>
+  </si>
+  <si>
+    <t>Postpaid Red 350 Promotion</t>
+  </si>
+  <si>
+    <t>PlanSelection</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>97478119570</t>
+  </si>
+  <si>
+    <t>SIM_NO</t>
+  </si>
+  <si>
+    <t>8962702800901129570</t>
+  </si>
+  <si>
+    <t>VFQA_Test289</t>
+  </si>
+  <si>
+    <t>10243318168</t>
+  </si>
+  <si>
+    <t>1-4PELUY9</t>
+  </si>
+  <si>
+    <t>1-10243318286</t>
+  </si>
+  <si>
+    <t>VFQA_Test194</t>
+  </si>
+  <si>
+    <t>10245328888</t>
+  </si>
+  <si>
+    <t>1-4PFSYFL</t>
+  </si>
+  <si>
+    <t>1-10245329006</t>
+  </si>
+  <si>
+    <t>1-10245579881</t>
+  </si>
+  <si>
+    <t>VFQA_Test678</t>
+  </si>
+  <si>
+    <t>10253329848</t>
+  </si>
+  <si>
+    <t>1-4PKKG0H</t>
+  </si>
+  <si>
+    <t>1-10253329966</t>
+  </si>
+  <si>
+    <t>22-1-2018</t>
+  </si>
+  <si>
+    <t>Enterprise_Migration</t>
+  </si>
+  <si>
+    <t>Prepaid_To_Postpaid</t>
+  </si>
+  <si>
+    <t>1-4MNTTXL</t>
+  </si>
+  <si>
+    <t>Order_no</t>
+  </si>
+  <si>
+    <t>1-10089039939</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_GuidedJourney</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>97478152665</t>
+  </si>
+  <si>
+    <t>8962702800901163665</t>
+  </si>
+  <si>
+    <t>Postpaid Red 250 Promotion</t>
+  </si>
+  <si>
+    <t>Consumer_Migration</t>
+  </si>
+  <si>
+    <t>1-4K1XO80</t>
+  </si>
+  <si>
+    <t>1-10090342515</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid_Provision</t>
+  </si>
+  <si>
+    <t>Address line1</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Dan</t>
+  </si>
+  <si>
+    <t>Address line2</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Doug</t>
+  </si>
+  <si>
+    <t>VFQA_Test516</t>
+  </si>
+  <si>
+    <t>10092270788</t>
+  </si>
+  <si>
+    <t>1-4MWOE2I</t>
+  </si>
+  <si>
+    <t>1-10092270909</t>
+  </si>
+  <si>
+    <t>Prepaid Red Promotion</t>
+  </si>
+  <si>
+    <t>97478152668</t>
+  </si>
+  <si>
+    <t>8962702800901163668</t>
+  </si>
+  <si>
+    <t>1-4MWOE1P</t>
+  </si>
+  <si>
+    <t>1-10092404379</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Provision</t>
+  </si>
+  <si>
+    <t>ExtCustomer</t>
+  </si>
+  <si>
+    <t>1-10092709061</t>
+  </si>
+  <si>
+    <t>97478152661</t>
+  </si>
+  <si>
+    <t>8962702800901163661</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+  <si>
+    <t>PlanDiscount</t>
+  </si>
+  <si>
+    <t>1-10092869374</t>
+  </si>
+  <si>
+    <t>Change_SmartLimit</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid</t>
+  </si>
+  <si>
+    <t>1-10092984164</t>
+  </si>
+  <si>
+    <t>SIMSwap</t>
+  </si>
+  <si>
+    <t>1-10093067514</t>
+  </si>
+  <si>
+    <t>TransferOfService</t>
+  </si>
+  <si>
+    <t>NewAccount</t>
+  </si>
+  <si>
+    <t>VFQA_Test691</t>
+  </si>
+  <si>
+    <t>10093179318</t>
+  </si>
+  <si>
+    <t>1-4MX7V2N</t>
+  </si>
+  <si>
+    <t>VFQA_Test156</t>
+  </si>
+  <si>
+    <t>10093241158</t>
+  </si>
+  <si>
+    <t>1-4MX96SF</t>
+  </si>
+  <si>
+    <t>1-10093282909</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>1-10093379144</t>
+  </si>
+  <si>
+    <t>Postpaid_To_Prepaid</t>
+  </si>
+  <si>
+    <t>1-4MXEH0V</t>
+  </si>
+  <si>
+    <t>1-10093488045</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,17 +358,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -102,10 +385,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -140,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,7 +458,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,7 +546,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -272,13 +555,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -288,7 +571,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -297,7 +580,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -306,7 +589,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -316,12 +599,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -352,7 +635,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -371,7 +654,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -383,8 +666,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -392,11 +675,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -416,8 +699,824 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="153">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -311,6 +311,168 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>1-10107841859</t>
+  </si>
+  <si>
+    <t>Suspend</t>
+  </si>
+  <si>
+    <t>1-10108033373</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>1-10108734603</t>
+  </si>
+  <si>
+    <t>Plan_UpgradeDowngrade</t>
+  </si>
+  <si>
+    <t>1-10108868195</t>
+  </si>
+  <si>
+    <t>1-10109025735</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid_Provision</t>
+  </si>
+  <si>
+    <t>10109137161</t>
+  </si>
+  <si>
+    <t>Entp_AccountCreation</t>
+  </si>
+  <si>
+    <t>VFQA_Test533</t>
+  </si>
+  <si>
+    <t>Entp_ContactCreation</t>
+  </si>
+  <si>
+    <t>Kar#1126194</t>
+  </si>
+  <si>
+    <t>1-4N6PW8F</t>
+  </si>
+  <si>
+    <t>1-10109137270</t>
+  </si>
+  <si>
+    <t>23-1-2018</t>
+  </si>
+  <si>
+    <t>97478152669</t>
+  </si>
+  <si>
+    <t>8962702800901163669</t>
+  </si>
+  <si>
+    <t>Change_MSISDN</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid</t>
+  </si>
+  <si>
+    <t>1-10109335599</t>
+  </si>
+  <si>
+    <t>Account_Name</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Jean VFQA_Test_Colin Postpaid</t>
+  </si>
+  <si>
+    <t>1-4N6Y0NQ</t>
+  </si>
+  <si>
+    <t>1-10109516471</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Provision</t>
+  </si>
+  <si>
+    <t>1-10109796431</t>
+  </si>
+  <si>
+    <t>Postpaid Basic Promotion</t>
+  </si>
+  <si>
+    <t>97478152664</t>
+  </si>
+  <si>
+    <t>8962702800901163664</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid</t>
+  </si>
+  <si>
+    <t>1-10109880975</t>
+  </si>
+  <si>
+    <t>1-10110058227</t>
+  </si>
+  <si>
+    <t>Disconnection</t>
+  </si>
+  <si>
+    <t>1-10110746073</t>
+  </si>
+  <si>
+    <t>1-10110941213</t>
+  </si>
+  <si>
+    <t>TransferOfOwnership</t>
+  </si>
+  <si>
+    <t>VFQA_Test802</t>
+  </si>
+  <si>
+    <t>10111142943</t>
+  </si>
+  <si>
+    <t>1-4N7XACR</t>
+  </si>
+  <si>
+    <t>1-4N7WVW8</t>
+  </si>
+  <si>
+    <t>1-10111161807</t>
+  </si>
+  <si>
+    <t>Service_Id</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Dusty VFQA_Test_Damion Postpaid</t>
+  </si>
+  <si>
+    <t>OrderNo</t>
+  </si>
+  <si>
+    <t>TroubleTicket</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TroubleTicket_No</t>
+  </si>
+  <si>
+    <t>1-10111647491</t>
+  </si>
+  <si>
+    <t>1-10119677121</t>
+  </si>
+  <si>
+    <t>UpgradePromotion_Account360</t>
+  </si>
+  <si>
+    <t>1-10120882236</t>
   </si>
 </sst>
 </file>
@@ -667,7 +829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -863,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
@@ -880,7 +1042,7 @@
         <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
@@ -897,7 +1059,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>49</v>
@@ -982,7 +1144,7 @@
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
@@ -1492,7 +1654,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
         <v>54</v>
@@ -1513,6 +1675,584 @@
       </c>
       <c r="E49" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>113</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>114</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>132</v>
+      </c>
+      <c r="E71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" t="s">
+        <v>114</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E77" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" t="s">
+        <v>141</v>
+      </c>
+      <c r="E78" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" t="s">
+        <v>142</v>
+      </c>
+      <c r="E79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>137</v>
+      </c>
+      <c r="B80" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" t="s">
+        <v>129</v>
+      </c>
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" t="s">
+        <v>150</v>
+      </c>
+      <c r="E82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="168">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -473,6 +473,51 @@
   </si>
   <si>
     <t>1-10120882236</t>
+  </si>
+  <si>
+    <t>VFQA_Test73</t>
+  </si>
+  <si>
+    <t>10276985538</t>
+  </si>
+  <si>
+    <t>1-4PYNGUZ</t>
+  </si>
+  <si>
+    <t>1-10276985656</t>
+  </si>
+  <si>
+    <t>24-1-2018</t>
+  </si>
+  <si>
+    <t>97478119558</t>
+  </si>
+  <si>
+    <t>8962702800901129558</t>
+  </si>
+  <si>
+    <t>VFQA_Test693</t>
+  </si>
+  <si>
+    <t>10121360128</t>
+  </si>
+  <si>
+    <t>VFQA_Test652</t>
+  </si>
+  <si>
+    <t>10121360348</t>
+  </si>
+  <si>
+    <t>1-4NDZVP1</t>
+  </si>
+  <si>
+    <t>1-10121360466</t>
+  </si>
+  <si>
+    <t>97478152659</t>
+  </si>
+  <si>
+    <t>8962702800901163659</t>
   </si>
 </sst>
 </file>
@@ -872,7 +917,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -906,7 +951,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -923,7 +968,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -940,7 +985,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -957,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -991,7 +1036,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
@@ -1008,7 +1053,7 @@
         <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
         <v>25</v>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290"/>
+    <workbookView windowHeight="7290" windowWidth="14805" xWindow="240" yWindow="825"/>
   </bookViews>
   <sheets>
-    <sheet name="Dynamic_DataStore" sheetId="1" r:id="rId1"/>
+    <sheet name="Dynamic_DataStore" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
   <si>
     <t>Dynamic_Value</t>
   </si>
@@ -29,12 +29,265 @@
   </si>
   <si>
     <t>Dynamic_TestCase</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Provision</t>
+  </si>
+  <si>
+    <t>NewCustomer</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>VFQA_Test662</t>
+  </si>
+  <si>
+    <t>ContactCreation</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Account_No</t>
+  </si>
+  <si>
+    <t>60328884404</t>
+  </si>
+  <si>
+    <t>AccountCreation</t>
+  </si>
+  <si>
+    <t>Billing_NO</t>
+  </si>
+  <si>
+    <t>1-RPQ9D71</t>
+  </si>
+  <si>
+    <t>BillingProfileCreation</t>
+  </si>
+  <si>
+    <t>Sales_OrderNO</t>
+  </si>
+  <si>
+    <t>1-60328884520</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>Order_Creation_Date</t>
+  </si>
+  <si>
+    <t>11-2-2018</t>
+  </si>
+  <si>
+    <t>PlanName</t>
+  </si>
+  <si>
+    <t>Postpaid Red 250 Promotion</t>
+  </si>
+  <si>
+    <t>PlanSelection</t>
+  </si>
+  <si>
+    <t>MSISDN</t>
+  </si>
+  <si>
+    <t>97470200827</t>
+  </si>
+  <si>
+    <t>SIM_NO</t>
+  </si>
+  <si>
+    <t>8942702111303536008</t>
+  </si>
+  <si>
+    <t>Plan_UpgradeDowngrade</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid</t>
+  </si>
+  <si>
+    <t>Order_no</t>
+  </si>
+  <si>
+    <t>1-60329198261</t>
+  </si>
+  <si>
+    <t>SIMSwap</t>
+  </si>
+  <si>
+    <t>1-60329500320</t>
+  </si>
+  <si>
+    <t>Change_MSISDN</t>
+  </si>
+  <si>
+    <t>1-60329585367</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>1-60328683120</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid_Provision</t>
+  </si>
+  <si>
+    <t>Address line1</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Augustine</t>
+  </si>
+  <si>
+    <t>Address line2</t>
+  </si>
+  <si>
+    <t>VFQA_Test_Jonathan</t>
+  </si>
+  <si>
+    <t>VFQA_Test384</t>
+  </si>
+  <si>
+    <t>60330103394</t>
+  </si>
+  <si>
+    <t>1-RPQZHSM</t>
+  </si>
+  <si>
+    <t>1-60330103513</t>
+  </si>
+  <si>
+    <t>Prepaid Red Promotion</t>
+  </si>
+  <si>
+    <t>97470346807</t>
+  </si>
+  <si>
+    <t>8942702111303537790</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Provision</t>
+  </si>
+  <si>
+    <t>60330351307</t>
+  </si>
+  <si>
+    <t>Entp_AccountCreation</t>
+  </si>
+  <si>
+    <t>Consumer_Migration</t>
+  </si>
+  <si>
+    <t>Prepaid_To_Postpaid</t>
+  </si>
+  <si>
+    <t>1-RPRBUFR</t>
+  </si>
+  <si>
+    <t>1-60331276512</t>
+  </si>
+  <si>
+    <t>TransferOfService</t>
+  </si>
+  <si>
+    <t>NewAccount</t>
+  </si>
+  <si>
+    <t>VFQA_Test636</t>
+  </si>
+  <si>
+    <t>60329015920</t>
+  </si>
+  <si>
+    <t>1-RPQC6O9</t>
+  </si>
+  <si>
+    <t>VFQA_Test383</t>
+  </si>
+  <si>
+    <t>60328538450</t>
+  </si>
+  <si>
+    <t>1-RPQ1Y97</t>
+  </si>
+  <si>
+    <t>1-60328538579</t>
+  </si>
+  <si>
+    <t>Disconnection</t>
+  </si>
+  <si>
+    <t>1-60329050489</t>
+  </si>
+  <si>
+    <t>60332109167</t>
+  </si>
+  <si>
+    <t>VFQA_Test754</t>
+  </si>
+  <si>
+    <t>Entp_ContactCreation</t>
+  </si>
+  <si>
+    <t>Kar#1127266</t>
+  </si>
+  <si>
+    <t>1-RPS6HFU</t>
+  </si>
+  <si>
+    <t>1-60332109266</t>
+  </si>
+  <si>
+    <t>60330945957</t>
+  </si>
+  <si>
+    <t>VFQA_Test772</t>
+  </si>
+  <si>
+    <t>1-RPRHJWG</t>
+  </si>
+  <si>
+    <t>1-60330946056</t>
+  </si>
+  <si>
+    <t>Postpaid Standard Promotion</t>
+  </si>
+  <si>
+    <t>97470463423</t>
+  </si>
+  <si>
+    <t>8942702111303536024</t>
+  </si>
+  <si>
+    <t>Suspend</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid</t>
+  </si>
+  <si>
+    <t>1-60333426779</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>1-60333654419</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,17 +328,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -102,10 +355,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -140,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,7 +428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,7 +516,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -272,13 +525,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -288,7 +541,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -297,7 +550,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -306,7 +559,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -316,12 +569,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -352,7 +605,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -371,7 +624,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -383,8 +636,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD98"/>
@@ -392,11 +645,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -416,8 +669,739 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/StoreDB.xlsx
+++ b/Framework/Storage/StoreDB.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A12" sqref="A2:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
